--- a/DCAE_diagnosis/confusion_bearing.xlsx
+++ b/DCAE_diagnosis/confusion_bearing.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,9 +56,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -344,8 +340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" activeCellId="17" sqref="J11 I10:I11 H9:H11 G8:G11 F7:F11 E6:E11 D5:D11 C4:C11 B3:B11 C2:K2 D3:K3 E4:K4 F5:K5 G6:K6 H7:K7 I8:K8 J9:K9 K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -356,322 +352,322 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+      <c r="B2">
         <v>94.5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1.7</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1.3</v>
+      </c>
+      <c r="J2">
+        <v>0.4</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>94.8</v>
+      </c>
+      <c r="D3">
         <v>1.3</v>
       </c>
-      <c r="C3" s="1">
-        <v>94.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>95.5</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+      <c r="D4">
+        <v>96.5</v>
+      </c>
+      <c r="E4">
+        <v>1.4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5">
+        <v>97.6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2.7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>95.4</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1.8</v>
+      </c>
+      <c r="G7">
+        <v>97</v>
+      </c>
+      <c r="H7">
+        <v>0.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>1.3</v>
+      </c>
+      <c r="H8">
+        <v>98.1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>95.7</v>
+      </c>
+      <c r="J9">
+        <v>1.6</v>
+      </c>
+      <c r="K9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <v>98.2</v>
+      </c>
+      <c r="K10">
         <v>0.7</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>97.6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>95.4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>97</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>98.1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>96.1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>98.8</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
         <v>98.7</v>
       </c>
     </row>
